--- a/results/DeepBench_NV_TitanX.xlsx
+++ b/results/DeepBench_NV_TitanX.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="27430"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="560" yWindow="0" windowWidth="25040" windowHeight="17460" tabRatio="500"/>
+    <workbookView xWindow="560" yWindow="0" windowWidth="29860" windowHeight="19160" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Results" sheetId="1" r:id="rId1"/>
@@ -325,8 +325,10 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="41">
+  <cellStyleXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -387,7 +389,7 @@
     </xf>
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="41">
+  <cellStyles count="43">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -408,6 +410,7 @@
     <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -428,6 +431,7 @@
     <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -759,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC207"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A169" workbookViewId="0">
-      <selection activeCell="A197" sqref="A197:XFD197"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B39" workbookViewId="0">
+      <selection activeCell="E57" sqref="E57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -2189,11 +2193,11 @@
         <v>2</v>
       </c>
       <c r="I56">
-        <v>74.676000000000002</v>
+        <v>56.341999999999999</v>
       </c>
       <c r="J56" s="1">
         <f t="shared" si="0"/>
-        <v>2.2037179752530931</v>
+        <v>2.9208200546661458</v>
       </c>
       <c r="K56" s="10"/>
       <c r="L56" s="1"/>
@@ -2215,11 +2219,11 @@
         <v>2</v>
       </c>
       <c r="I57">
-        <v>0.6</v>
+        <v>0.66600000000000004</v>
       </c>
       <c r="J57" s="1">
         <f t="shared" si="0"/>
-        <v>1.7365040000000003</v>
+        <v>1.5644180180180178</v>
       </c>
       <c r="K57" s="10"/>
       <c r="L57" s="1"/>
@@ -2241,11 +2245,11 @@
         <v>2</v>
       </c>
       <c r="I58">
-        <v>71.745999999999995</v>
+        <v>40.795999999999999</v>
       </c>
       <c r="J58" s="1">
         <f t="shared" si="0"/>
-        <v>2.6690496487051547</v>
+        <v>4.6939316623198346</v>
       </c>
       <c r="K58" s="10"/>
       <c r="L58" s="1"/>
@@ -2267,11 +2271,11 @@
         <v>2</v>
       </c>
       <c r="I59">
-        <v>0.58099999999999996</v>
+        <v>0.73899999999999999</v>
       </c>
       <c r="J59" s="1">
         <f t="shared" si="0"/>
-        <v>2.0867392771084341</v>
+        <v>1.6405893369418132</v>
       </c>
       <c r="K59" s="10"/>
       <c r="L59" s="1"/>
@@ -2293,11 +2297,11 @@
         <v>2</v>
       </c>
       <c r="I60">
-        <v>95.858000000000004</v>
+        <v>85.013000000000005</v>
       </c>
       <c r="J60" s="1">
         <f t="shared" si="0"/>
-        <v>2.4971003475974878</v>
+        <v>2.8156522545963556</v>
       </c>
       <c r="K60" s="10"/>
       <c r="L60" s="1"/>
@@ -2319,11 +2323,11 @@
         <v>2</v>
       </c>
       <c r="I61">
-        <v>0.72</v>
+        <v>0.92</v>
       </c>
       <c r="J61" s="1">
         <f t="shared" si="0"/>
-        <v>2.1048533333333337</v>
+        <v>1.6472765217391303</v>
       </c>
       <c r="K61" s="10"/>
       <c r="L61" s="1"/>
@@ -2345,11 +2349,11 @@
         <v>2</v>
       </c>
       <c r="I62">
-        <v>153</v>
+        <v>92.891000000000005</v>
       </c>
       <c r="J62" s="1">
         <f t="shared" si="0"/>
-        <v>2.5031847855686276</v>
+        <v>4.1229750157927034</v>
       </c>
       <c r="K62" s="10"/>
       <c r="L62" s="1"/>
@@ -2371,11 +2375,11 @@
         <v>2</v>
       </c>
       <c r="I63">
-        <v>1.161</v>
+        <v>1.444</v>
       </c>
       <c r="J63" s="1">
         <f t="shared" si="0"/>
-        <v>2.0885366408268728</v>
+        <v>1.6792181717451524</v>
       </c>
       <c r="K63" s="10"/>
       <c r="L63" s="1"/>
@@ -2506,11 +2510,11 @@
         <v>2</v>
       </c>
       <c r="I69">
-        <v>0.84099999999999997</v>
+        <v>0.84599999999999997</v>
       </c>
       <c r="J69" s="1">
         <f t="shared" si="1"/>
-        <v>0.74809227110582643</v>
+        <v>0.74367092198581564</v>
       </c>
       <c r="K69" s="10"/>
       <c r="L69" s="1"/>
@@ -2532,11 +2536,11 @@
         <v>2</v>
       </c>
       <c r="I70">
-        <v>0.84599999999999997</v>
+        <v>0.85</v>
       </c>
       <c r="J70" s="1">
         <f t="shared" si="1"/>
-        <v>1.4873418439716313</v>
+        <v>1.4803425882352943</v>
       </c>
       <c r="K70" s="10"/>
       <c r="L70" s="1"/>
@@ -2558,11 +2562,11 @@
         <v>2</v>
       </c>
       <c r="I71">
-        <v>1.754</v>
+        <v>1.4850000000000001</v>
       </c>
       <c r="J71" s="1">
         <f t="shared" si="1"/>
-        <v>1.4347676168757126</v>
+        <v>1.6946682828282829</v>
       </c>
       <c r="K71" s="10"/>
       <c r="L71" s="1"/>
@@ -2584,11 +2588,11 @@
         <v>2</v>
       </c>
       <c r="I72">
-        <v>1.78</v>
+        <v>2.2149999999999999</v>
       </c>
       <c r="J72" s="1">
         <f t="shared" si="1"/>
-        <v>2.8276206741573033</v>
+        <v>2.2723091647855531</v>
       </c>
       <c r="K72" s="10"/>
       <c r="L72" s="1"/>
@@ -2719,11 +2723,11 @@
         <v>2</v>
       </c>
       <c r="I77">
-        <v>0.152</v>
+        <v>0.216</v>
       </c>
       <c r="J77" s="1">
         <f t="shared" si="1"/>
-        <v>0.66225852631578941</v>
+        <v>0.46603377777777777</v>
       </c>
       <c r="K77" s="10"/>
       <c r="L77" s="1"/>
@@ -2746,11 +2750,11 @@
         <v>2</v>
       </c>
       <c r="I78">
-        <v>0.154</v>
+        <v>0.217</v>
       </c>
       <c r="J78" s="1">
         <f t="shared" si="1"/>
-        <v>1.3073155324675325</v>
+        <v>0.9277723133640553</v>
       </c>
       <c r="K78" s="10"/>
       <c r="L78" s="1"/>
@@ -2773,11 +2777,11 @@
         <v>2</v>
       </c>
       <c r="I79">
-        <v>0.376</v>
+        <v>0.19900000000000001</v>
       </c>
       <c r="J79" s="1">
         <f t="shared" si="1"/>
-        <v>1.0708861276595747</v>
+        <v>2.0233828341708544</v>
       </c>
       <c r="K79" s="10"/>
       <c r="L79" s="1"/>
@@ -2800,11 +2804,11 @@
         <v>2</v>
       </c>
       <c r="I80">
-        <v>0.59699999999999998</v>
+        <v>0.224</v>
       </c>
       <c r="J80" s="1">
         <f t="shared" si="1"/>
-        <v>1.3489218894472363</v>
+        <v>3.5951177142857142</v>
       </c>
       <c r="K80" s="10"/>
       <c r="L80" s="1"/>

--- a/results/DeepBench_NV_TitanX.xlsx
+++ b/results/DeepBench_NV_TitanX.xlsx
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC207"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B39" workbookViewId="0">
-      <selection activeCell="E57" sqref="E57"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -827,7 +827,7 @@
       <c r="G2" t="s">
         <v>2</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="1">
         <v>0.182</v>
       </c>
       <c r="J2" s="1">
@@ -853,7 +853,7 @@
       <c r="G3" t="s">
         <v>2</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="1">
         <v>0.183</v>
       </c>
       <c r="J3" s="1">
@@ -879,7 +879,7 @@
       <c r="G4" t="s">
         <v>2</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="1">
         <v>0.247</v>
       </c>
       <c r="J4" s="1">
@@ -905,7 +905,7 @@
       <c r="G5" t="s">
         <v>2</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="1">
         <v>0.315</v>
       </c>
       <c r="J5" s="1">
@@ -931,7 +931,7 @@
       <c r="G6" t="s">
         <v>2</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="1">
         <v>12.73</v>
       </c>
       <c r="J6" s="1">
@@ -957,7 +957,7 @@
       <c r="G7" t="s">
         <v>2</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="1">
         <v>0.21199999999999999</v>
       </c>
       <c r="J7" s="1">
@@ -983,7 +983,7 @@
       <c r="G8" t="s">
         <v>2</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="1">
         <v>0.21299999999999999</v>
       </c>
       <c r="J8" s="1">
@@ -1009,7 +1009,7 @@
       <c r="G9" t="s">
         <v>2</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="1">
         <v>0.28199999999999997</v>
       </c>
       <c r="J9" s="1">
@@ -1035,7 +1035,7 @@
       <c r="G10" t="s">
         <v>2</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="1">
         <v>0.33200000000000002</v>
       </c>
       <c r="J10" s="1">
@@ -1061,7 +1061,7 @@
       <c r="G11" t="s">
         <v>2</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="1">
         <v>12.734</v>
       </c>
       <c r="J11" s="1">
@@ -1087,7 +1087,7 @@
       <c r="G12" t="s">
         <v>2</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="1">
         <v>0.35799999999999998</v>
       </c>
       <c r="J12" s="1">
@@ -1113,7 +1113,7 @@
       <c r="G13" t="s">
         <v>2</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="1">
         <v>0.35699999999999998</v>
       </c>
       <c r="J13" s="1">
@@ -1139,7 +1139,7 @@
       <c r="G14" t="s">
         <v>2</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="1">
         <v>0.36099999999999999</v>
       </c>
       <c r="J14" s="1">
@@ -1165,7 +1165,7 @@
       <c r="G15" t="s">
         <v>2</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="1">
         <v>0.41399999999999998</v>
       </c>
       <c r="J15" s="1">
@@ -1191,7 +1191,7 @@
       <c r="G16" t="s">
         <v>2</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="1">
         <v>19.760000000000002</v>
       </c>
       <c r="J16" s="1">
@@ -1217,7 +1217,7 @@
       <c r="G17" t="s">
         <v>2</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="1">
         <v>0.745</v>
       </c>
       <c r="J17" s="1">
@@ -1243,7 +1243,7 @@
       <c r="G18" t="s">
         <v>2</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="1">
         <v>0.749</v>
       </c>
       <c r="J18" s="1">
@@ -1269,7 +1269,7 @@
       <c r="G19" t="s">
         <v>2</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="1">
         <v>0.65700000000000003</v>
       </c>
       <c r="J19" s="1">
@@ -1295,7 +1295,7 @@
       <c r="G20" t="s">
         <v>2</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="1">
         <v>0.95699999999999996</v>
       </c>
       <c r="J20" s="1">
@@ -1321,7 +1321,7 @@
       <c r="G21" t="s">
         <v>2</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="1">
         <v>50.338999999999999</v>
       </c>
       <c r="J21" s="1">
@@ -1347,7 +1347,7 @@
       <c r="G22" t="s">
         <v>2</v>
       </c>
-      <c r="I22">
+      <c r="I22" s="1">
         <v>0.17599999999999999</v>
       </c>
       <c r="J22" s="1">
@@ -1373,7 +1373,7 @@
       <c r="G23" t="s">
         <v>2</v>
       </c>
-      <c r="I23">
+      <c r="I23" s="1">
         <v>0.17799999999999999</v>
       </c>
       <c r="J23" s="1">
@@ -1399,7 +1399,7 @@
       <c r="G24" t="s">
         <v>2</v>
       </c>
-      <c r="I24">
+      <c r="I24" s="1">
         <v>0.34399999999999997</v>
       </c>
       <c r="J24" s="1">
@@ -1425,7 +1425,7 @@
       <c r="G25" t="s">
         <v>2</v>
       </c>
-      <c r="I25">
+      <c r="I25" s="1">
         <v>0.36</v>
       </c>
       <c r="J25" s="1">
@@ -1451,7 +1451,7 @@
       <c r="G26" t="s">
         <v>2</v>
       </c>
-      <c r="I26">
+      <c r="I26" s="1">
         <v>15.532999999999999</v>
       </c>
       <c r="J26" s="1">
@@ -1477,7 +1477,7 @@
       <c r="G27" t="s">
         <v>2</v>
       </c>
-      <c r="I27">
+      <c r="I27" s="1">
         <v>0.20899999999999999</v>
       </c>
       <c r="J27" s="1">
@@ -1503,7 +1503,7 @@
       <c r="G28" t="s">
         <v>2</v>
       </c>
-      <c r="I28">
+      <c r="I28" s="1">
         <v>0.21099999999999999</v>
       </c>
       <c r="J28" s="1">
@@ -1529,7 +1529,7 @@
       <c r="G29" t="s">
         <v>2</v>
       </c>
-      <c r="I29">
+      <c r="I29" s="1">
         <v>0.34300000000000003</v>
       </c>
       <c r="J29" s="1">
@@ -1555,7 +1555,7 @@
       <c r="G30" t="s">
         <v>2</v>
       </c>
-      <c r="I30">
+      <c r="I30" s="1">
         <v>0.36499999999999999</v>
       </c>
       <c r="J30" s="1">
@@ -1581,7 +1581,7 @@
       <c r="G31" t="s">
         <v>2</v>
       </c>
-      <c r="I31">
+      <c r="I31" s="1">
         <v>13.013999999999999</v>
       </c>
       <c r="J31" s="1">
@@ -1607,7 +1607,7 @@
       <c r="G32" t="s">
         <v>2</v>
       </c>
-      <c r="I32">
+      <c r="I32" s="1">
         <v>0.35099999999999998</v>
       </c>
       <c r="J32" s="1">
@@ -1633,7 +1633,7 @@
       <c r="G33" t="s">
         <v>2</v>
       </c>
-      <c r="I33">
+      <c r="I33" s="1">
         <v>0.34899999999999998</v>
       </c>
       <c r="J33" s="1">
@@ -1659,7 +1659,7 @@
       <c r="G34" t="s">
         <v>2</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="1">
         <v>0.77300000000000002</v>
       </c>
       <c r="J34" s="1">
@@ -1685,7 +1685,7 @@
       <c r="G35" t="s">
         <v>2</v>
       </c>
-      <c r="I35">
+      <c r="I35" s="1">
         <v>0.57799999999999996</v>
       </c>
       <c r="J35" s="1">
@@ -1711,7 +1711,7 @@
       <c r="G36" t="s">
         <v>2</v>
       </c>
-      <c r="I36">
+      <c r="I36" s="1">
         <v>29.347999999999999</v>
       </c>
       <c r="J36" s="1">
@@ -1737,7 +1737,7 @@
       <c r="G37" t="s">
         <v>2</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="1">
         <v>0.75600000000000001</v>
       </c>
       <c r="J37" s="1">
@@ -1763,7 +1763,7 @@
       <c r="G38" t="s">
         <v>2</v>
       </c>
-      <c r="I38">
+      <c r="I38" s="1">
         <v>0.76100000000000001</v>
       </c>
       <c r="J38" s="1">
@@ -1789,7 +1789,7 @@
       <c r="G39" t="s">
         <v>2</v>
       </c>
-      <c r="I39">
+      <c r="I39" s="1">
         <v>0.83499999999999996</v>
       </c>
       <c r="J39" s="1">
@@ -1815,7 +1815,7 @@
       <c r="G40" t="s">
         <v>2</v>
       </c>
-      <c r="I40">
+      <c r="I40" s="1">
         <v>1.0640000000000001</v>
       </c>
       <c r="J40" s="1">
@@ -1841,7 +1841,7 @@
       <c r="G41" t="s">
         <v>2</v>
       </c>
-      <c r="I41">
+      <c r="I41" s="1">
         <v>52.185000000000002</v>
       </c>
       <c r="J41" s="1">
@@ -1870,7 +1870,7 @@
       <c r="H42" t="s">
         <v>8</v>
       </c>
-      <c r="I42">
+      <c r="I42" s="1">
         <v>12.904999999999999</v>
       </c>
       <c r="J42" s="1">
@@ -1896,7 +1896,7 @@
       <c r="G43" t="s">
         <v>7</v>
       </c>
-      <c r="I43">
+      <c r="I43" s="1">
         <v>12.859</v>
       </c>
       <c r="J43" s="1">
@@ -1922,7 +1922,7 @@
       <c r="G44" t="s">
         <v>7</v>
       </c>
-      <c r="I44">
+      <c r="I44" s="1">
         <v>19.968</v>
       </c>
       <c r="J44" s="1">
@@ -1948,7 +1948,7 @@
       <c r="G45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I45">
+      <c r="I45" s="1">
         <v>50.600999999999999</v>
       </c>
       <c r="J45" s="1">
@@ -1959,11 +1959,13 @@
       <c r="L45" s="1"/>
     </row>
     <row r="46" spans="3:12">
+      <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="10"/>
       <c r="L46" s="1"/>
     </row>
     <row r="47" spans="3:12">
+      <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="10"/>
       <c r="L47" s="1"/>
@@ -1984,7 +1986,7 @@
       <c r="G48" t="s">
         <v>2</v>
       </c>
-      <c r="I48">
+      <c r="I48" s="1">
         <v>34.237000000000002</v>
       </c>
       <c r="J48" s="1">
@@ -2010,7 +2012,7 @@
       <c r="G49" t="s">
         <v>2</v>
       </c>
-      <c r="I49">
+      <c r="I49" s="1">
         <v>1.1890000000000001</v>
       </c>
       <c r="J49" s="1">
@@ -2036,7 +2038,7 @@
       <c r="G50" t="s">
         <v>2</v>
       </c>
-      <c r="I50">
+      <c r="I50" s="1">
         <v>39.805</v>
       </c>
       <c r="J50" s="1">
@@ -2062,7 +2064,7 @@
       <c r="G51" t="s">
         <v>2</v>
       </c>
-      <c r="I51">
+      <c r="I51" s="1">
         <v>0.71299999999999997</v>
       </c>
       <c r="J51" s="1">
@@ -2088,7 +2090,7 @@
       <c r="G52" t="s">
         <v>2</v>
       </c>
-      <c r="I52">
+      <c r="I52" s="1">
         <v>49.896000000000001</v>
       </c>
       <c r="J52" s="1">
@@ -2114,7 +2116,7 @@
       <c r="G53" t="s">
         <v>2</v>
       </c>
-      <c r="I53">
+      <c r="I53" s="1">
         <v>1.651</v>
       </c>
       <c r="J53" s="1">
@@ -2140,7 +2142,7 @@
       <c r="G54" t="s">
         <v>2</v>
       </c>
-      <c r="I54">
+      <c r="I54" s="1">
         <v>79.492000000000004</v>
       </c>
       <c r="J54" s="1">
@@ -2166,7 +2168,7 @@
       <c r="G55" t="s">
         <v>2</v>
       </c>
-      <c r="I55">
+      <c r="I55" s="1">
         <v>1.403</v>
       </c>
       <c r="J55" s="1">
@@ -2192,7 +2194,7 @@
       <c r="G56" t="s">
         <v>2</v>
       </c>
-      <c r="I56">
+      <c r="I56" s="1">
         <v>56.341999999999999</v>
       </c>
       <c r="J56" s="1">
@@ -2218,7 +2220,7 @@
       <c r="G57" t="s">
         <v>2</v>
       </c>
-      <c r="I57">
+      <c r="I57" s="1">
         <v>0.66600000000000004</v>
       </c>
       <c r="J57" s="1">
@@ -2244,7 +2246,7 @@
       <c r="G58" t="s">
         <v>2</v>
       </c>
-      <c r="I58">
+      <c r="I58" s="1">
         <v>40.795999999999999</v>
       </c>
       <c r="J58" s="1">
@@ -2270,7 +2272,7 @@
       <c r="G59" t="s">
         <v>2</v>
       </c>
-      <c r="I59">
+      <c r="I59" s="1">
         <v>0.73899999999999999</v>
       </c>
       <c r="J59" s="1">
@@ -2296,7 +2298,7 @@
       <c r="G60" t="s">
         <v>2</v>
       </c>
-      <c r="I60">
+      <c r="I60" s="1">
         <v>85.013000000000005</v>
       </c>
       <c r="J60" s="1">
@@ -2322,7 +2324,7 @@
       <c r="G61" t="s">
         <v>2</v>
       </c>
-      <c r="I61">
+      <c r="I61" s="1">
         <v>0.92</v>
       </c>
       <c r="J61" s="1">
@@ -2348,7 +2350,7 @@
       <c r="G62" t="s">
         <v>2</v>
       </c>
-      <c r="I62">
+      <c r="I62" s="1">
         <v>92.891000000000005</v>
       </c>
       <c r="J62" s="1">
@@ -2374,7 +2376,7 @@
       <c r="G63" t="s">
         <v>2</v>
       </c>
-      <c r="I63">
+      <c r="I63" s="1">
         <v>1.444</v>
       </c>
       <c r="J63" s="1">
@@ -2385,6 +2387,7 @@
       <c r="L63" s="1"/>
     </row>
     <row r="64" spans="3:12">
+      <c r="I64" s="1"/>
       <c r="J64" s="1"/>
       <c r="K64" s="10"/>
       <c r="L64" s="1"/>
@@ -2405,7 +2408,7 @@
       <c r="G65" t="s">
         <v>2</v>
       </c>
-      <c r="I65">
+      <c r="I65" s="1">
         <v>0.83199999999999996</v>
       </c>
       <c r="J65" s="1">
@@ -2431,7 +2434,7 @@
       <c r="G66" t="s">
         <v>2</v>
       </c>
-      <c r="I66">
+      <c r="I66" s="1">
         <v>0.83299999999999996</v>
       </c>
       <c r="J66" s="1">
@@ -2457,7 +2460,7 @@
       <c r="G67" t="s">
         <v>2</v>
       </c>
-      <c r="I67">
+      <c r="I67" s="1">
         <v>0.60699999999999998</v>
       </c>
       <c r="J67" s="1">
@@ -2483,7 +2486,7 @@
       <c r="G68" t="s">
         <v>2</v>
       </c>
-      <c r="I68">
+      <c r="I68" s="1">
         <v>1.163</v>
       </c>
       <c r="J68" s="1">
@@ -2509,7 +2512,7 @@
       <c r="G69" t="s">
         <v>2</v>
       </c>
-      <c r="I69">
+      <c r="I69" s="1">
         <v>0.84599999999999997</v>
       </c>
       <c r="J69" s="1">
@@ -2535,7 +2538,7 @@
       <c r="G70" t="s">
         <v>2</v>
       </c>
-      <c r="I70">
+      <c r="I70" s="1">
         <v>0.85</v>
       </c>
       <c r="J70" s="1">
@@ -2561,7 +2564,7 @@
       <c r="G71" t="s">
         <v>2</v>
       </c>
-      <c r="I71">
+      <c r="I71" s="1">
         <v>1.4850000000000001</v>
       </c>
       <c r="J71" s="1">
@@ -2587,7 +2590,7 @@
       <c r="G72" t="s">
         <v>2</v>
       </c>
-      <c r="I72">
+      <c r="I72" s="1">
         <v>2.2149999999999999</v>
       </c>
       <c r="J72" s="1">
@@ -2614,7 +2617,7 @@
       <c r="G73" t="s">
         <v>2</v>
       </c>
-      <c r="I73">
+      <c r="I73" s="1">
         <v>0.187</v>
       </c>
       <c r="J73" s="1">
@@ -2641,7 +2644,7 @@
       <c r="G74" t="s">
         <v>2</v>
       </c>
-      <c r="I74">
+      <c r="I74" s="1">
         <v>0.189</v>
       </c>
       <c r="J74" s="1">
@@ -2668,7 +2671,7 @@
       <c r="G75" t="s">
         <v>2</v>
       </c>
-      <c r="I75">
+      <c r="I75" s="1">
         <v>0.16400000000000001</v>
       </c>
       <c r="J75" s="1">
@@ -2695,7 +2698,7 @@
       <c r="G76" t="s">
         <v>2</v>
       </c>
-      <c r="I76">
+      <c r="I76" s="1">
         <v>0.185</v>
       </c>
       <c r="J76" s="1">
@@ -2722,7 +2725,7 @@
       <c r="G77" t="s">
         <v>2</v>
       </c>
-      <c r="I77">
+      <c r="I77" s="1">
         <v>0.216</v>
       </c>
       <c r="J77" s="1">
@@ -2749,7 +2752,7 @@
       <c r="G78" t="s">
         <v>2</v>
       </c>
-      <c r="I78">
+      <c r="I78" s="1">
         <v>0.217</v>
       </c>
       <c r="J78" s="1">
@@ -2776,7 +2779,7 @@
       <c r="G79" t="s">
         <v>2</v>
       </c>
-      <c r="I79">
+      <c r="I79" s="1">
         <v>0.19900000000000001</v>
       </c>
       <c r="J79" s="1">
@@ -2803,7 +2806,7 @@
       <c r="G80" t="s">
         <v>2</v>
       </c>
-      <c r="I80">
+      <c r="I80" s="1">
         <v>0.224</v>
       </c>
       <c r="J80" s="1">
@@ -2814,6 +2817,7 @@
       <c r="L80" s="1"/>
     </row>
     <row r="81" spans="1:29">
+      <c r="I81" s="1"/>
       <c r="J81" s="1"/>
       <c r="K81" s="10"/>
       <c r="L81" s="1"/>
@@ -2834,7 +2838,7 @@
       <c r="G82" t="s">
         <v>7</v>
       </c>
-      <c r="I82">
+      <c r="I82" s="1">
         <v>9.3290000000000006</v>
       </c>
       <c r="J82" s="1">
@@ -2860,7 +2864,7 @@
       <c r="G83" t="s">
         <v>7</v>
       </c>
-      <c r="I83">
+      <c r="I83" s="1">
         <v>47.97</v>
       </c>
       <c r="J83" s="1">

--- a/results/DeepBench_NV_TitanX.xlsx
+++ b/results/DeepBench_NV_TitanX.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="78">
   <si>
     <t>Dense Matrix Multiplication</t>
   </si>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC207"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3564,8 +3564,8 @@
       <c r="N99" s="1">
         <v>0.23300000000000001</v>
       </c>
-      <c r="O99" s="1">
-        <v>0.72899999999999998</v>
+      <c r="O99" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="P99" s="1">
         <v>0.751</v>
@@ -3586,9 +3586,8 @@
         <f t="shared" si="5"/>
         <v>0.45565802575107295</v>
       </c>
-      <c r="V99" s="1">
-        <f t="shared" si="5"/>
-        <v>0.14563555555555557</v>
+      <c r="V99" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="W99" s="1">
         <f t="shared" si="5"/>
@@ -3856,8 +3855,8 @@
       <c r="N103" s="1">
         <v>6.0999999999999999E-2</v>
       </c>
-      <c r="O103" s="1">
-        <v>0.125</v>
+      <c r="O103" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="P103" s="1">
         <v>0.17499999999999999</v>
@@ -3878,9 +3877,8 @@
         <f t="shared" si="5"/>
         <v>1.3216650491803279</v>
       </c>
-      <c r="V103" s="1">
-        <f t="shared" si="5"/>
-        <v>0.64497254400000004</v>
+      <c r="V103" s="1" t="s">
+        <v>76</v>
       </c>
       <c r="W103" s="1">
         <f t="shared" si="5"/>
